--- a/Messenger_Thesis_1._0/wwwroot/Book1.xlsx
+++ b/Messenger_Thesis_1._0/wwwroot/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian Radores\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC85807D-5DCA-4C0D-B85E-5E9D8BE04669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E716625D-464B-4583-B407-F9B21FFE3BC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{FC408E3A-AECD-4AC3-9BB1-211AD0A11940}"/>
+    <workbookView xWindow="1560" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{011B8471-E787-40DB-8422-1E8BE3A4347D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,33 +31,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
-  <si>
-    <t>Account name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>burat</t>
-  </si>
-  <si>
-    <t>keke</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>asd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+  <si>
+    <t>NAMe</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>Alberto Bugatsing</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Areeya Mae</t>
+  </si>
+  <si>
+    <t>Jinkee Pacquiao</t>
+  </si>
+  <si>
+    <t>Shania Twain</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Mitchel B.</t>
+  </si>
+  <si>
+    <t>Caloocan</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Pasig</t>
+  </si>
+  <si>
+    <t>Pasay</t>
+  </si>
+  <si>
+    <t>Mandaluyong</t>
   </si>
 </sst>
 </file>
@@ -408,14 +426,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C011ED-6885-4628-AD15-39FD7E1C7BB8}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B53FA5-9FBC-4AD4-87BE-AF199C199047}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -429,91 +450,69 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20101</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20101</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20101</v>
-      </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20101</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>20101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Messenger_Thesis_1._0/wwwroot/Book1.xlsx
+++ b/Messenger_Thesis_1._0/wwwroot/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E716625D-464B-4583-B407-F9B21FFE3BC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F60D7E-78D9-4F19-9D7E-35EB76D3F398}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{011B8471-E787-40DB-8422-1E8BE3A4347D}"/>
+    <workbookView xWindow="8565" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{011B8471-E787-40DB-8422-1E8BE3A4347D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
   <si>
     <t>NAMe</t>
   </si>
@@ -427,15 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B53FA5-9FBC-4AD4-87BE-AF199C199047}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,6 +516,314 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Messenger_Thesis_1._0/wwwroot/Book1.xlsx
+++ b/Messenger_Thesis_1._0/wwwroot/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F60D7E-78D9-4F19-9D7E-35EB76D3F398}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27AEFDB-3EFA-4816-A358-72AFA817309E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{011B8471-E787-40DB-8422-1E8BE3A4347D}"/>
+    <workbookView xWindow="28680" yWindow="510" windowWidth="29040" windowHeight="15840" xr2:uid="{011B8471-E787-40DB-8422-1E8BE3A4347D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="16">
   <si>
     <t>NAMe</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Mandaluyong</t>
+  </si>
+  <si>
+    <t>Korea</t>
   </si>
 </sst>
 </file>
@@ -429,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B53FA5-9FBC-4AD4-87BE-AF199C199047}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,7 +505,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
